--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takutokotsubo/Desktop/Molecular_kaggle/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F253E3-75F1-7242-9D38-B9CD7DAFB731}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E038453-0F0E-2746-A27E-173C98477D4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="3300" windowWidth="28800" windowHeight="16280" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>テーブル名</t>
   </si>
@@ -100,7 +100,440 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>件数:</t>
+    <t>件数: 4658147</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユニークなid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的変数, スカラーカップリング定数</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">モクテキヘンスウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">テイスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数: 2505542</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケンスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>scalar_coupling_contributions.csv</t>
+  </si>
+  <si>
+    <t>structures.csv</t>
+  </si>
+  <si>
+    <t>atom_index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>atom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>structures.zip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数: 2358657</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケンスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分子名</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ブンシメイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分子構造(xyz) ファイルを含むフォルダ. 分子の原子数. 空白行. 各原子のデカルト座標を含む. 上記の(structures.csv)と内容は同じ</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ブンシコウゾウ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">フクム </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ブンシナイノ </t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">ゲンシスウ </t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t xml:space="preserve">クウハクギョウ </t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">カクゲンシノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ザヒョウヲ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">フクム </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ジョウキノ </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">ナイヨウハ </t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一分子における index, (最大分子数は29)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ブンシニオケル </t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t xml:space="preserve">サイダイブンシ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">スウハ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原子名 (H, C, O, N, F)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンシ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デカルト座標(x)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デカルト座標(y)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デカルト座標(z)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分子名 (.xyz を参考にする) </t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ブンシ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">サンコウニスル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>categorical</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合する原子2 (strcuturs.csv: atom_indexに対応)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケツゴウスル </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合する原子1 (strcuturs.csv: atom_indexに対応)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケツゴウスルゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例: 1HC, 水素原子, 炭素原子, 1はどういう意味?</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">スイソ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ゲンシ </t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t xml:space="preserve">タンソゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>train data と種類, 比率ともに同じ</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ヒリツ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数: 4658147</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>atom_index0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>atom_index1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pso</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dso</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スカラーカップリング定数 (train_data) = fc + sd + pso + dso</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">テイスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fermi Contact</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Spin-dipolar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Paramagnetic spin-orbit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Diamagnetic spin- orbit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数: 130775 (ファイル数)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分子名 (.xyz を参考にする) </t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ブンシメイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合する原子1</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合する原子2</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dipole_moments.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>magnetic_shielding_tensors.csv</t>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ZX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ZY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ZZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mulliken_charges.csv</t>
+  </si>
+  <si>
+    <t>mulliken_charges</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>potential_energy.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>potential_energy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数: 1533537</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分子名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ブンシメイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一分子における, 原子index</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ドウイツブンシニオケル </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mulliken電荷</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">デンカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数: 85003</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポテンシャルエネルギー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気双極子モーメント (x座標)</t>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ソウキョクシ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ザヒョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気双極子モーメント (y座標)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気双極子モーメント (z座標)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(XY, YX), (XZ, ZX), (YZ, ZY) : 相関が高い (0.91以上)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>magnetic shielding tensors ??</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -160,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,18 +920,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="87.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
@@ -557,37 +993,125 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4658147</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1">
+        <v>85003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2182935</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-36.219000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>204.88</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15.922000000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
@@ -607,11 +1131,91 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2505542</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45772</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
@@ -631,76 +1235,843 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1">
+        <v>130775</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2358411</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-9.2348999999999997</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.3821999999999992</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9.4892000000000004E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2358364</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-9.9338999999999995</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10.182</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.33373999999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2358421</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-9.1348000000000003</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.8947000000000003</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6.2414999999999998E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1">
+        <v>85003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2171072</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-37.223999999999997</v>
+      </c>
+      <c r="G30" s="1">
+        <v>205.52</v>
+      </c>
+      <c r="H30" s="1">
+        <v>15.698</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1">
+        <v>576942</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-3.1848999999999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.2967</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8.2336000000000006E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1355945</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-3.2881</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8.2014999999999993</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.37515999999999999</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1443215</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-6.8567999999999998</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.7016</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-0.23361000000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="1">
+        <v>85003</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1">
+        <v>52494</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-22.957999999999998</v>
+      </c>
+      <c r="G37" s="1">
+        <v>21.873999999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-1.9937E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="1">
+        <v>46825</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-9.2523</v>
+      </c>
+      <c r="G38" s="1">
+        <v>13.006</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9.3764E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="1">
+        <v>34847</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-6.0285000000000002</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.8800999999999997</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.25297999999999998</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1">
+        <v>85003</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="1">
+        <v>29</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>28</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="1">
+        <v>523980</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-3452.7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>425.4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>68.816000000000003</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1">
+        <v>549223</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-758.29</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1080.2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>-9.3260999999999997E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="1">
+        <v>457665</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-731.99</v>
+      </c>
+      <c r="G45" s="1">
+        <v>662.05</v>
+      </c>
+      <c r="H45" s="1">
+        <v>9.9413000000000001E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1">
+        <v>532658</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-2146.6999999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>425.47</v>
+      </c>
+      <c r="H47" s="1">
+        <v>65.492000000000004</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1">
+        <v>436576</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-645.76</v>
+      </c>
+      <c r="G48" s="1">
+        <v>673.91</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-3.2280999999999997E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="1">
+        <v>488258</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-948.6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>556.88</v>
+      </c>
+      <c r="H51" s="1">
+        <v>82.62</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
+    <row r="54" spans="1:10">
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="1">
+        <v>85003</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="1">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>28</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="1">
+        <v>599131</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-0.73345000000000005</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.72897999999999996</v>
+      </c>
+      <c r="H56" s="1">
+        <v>-0.22561999999999999</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="1">
+        <v>85003</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="1">
+        <v>54596</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-714.63</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-40.524000000000001</v>
+      </c>
+      <c r="H59" s="1">
+        <v>-410.87</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E038453-0F0E-2746-A27E-173C98477D4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43821DF0-C728-C040-8E64-1C359FE38964}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>テーブル名</t>
   </si>
@@ -357,14 +357,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Paramagnetic spin-orbit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Diamagnetic spin- orbit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>件数: 130775 (ファイル数)</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ケンスウ </t>
@@ -534,6 +526,34 @@
   </si>
   <si>
     <t>magnetic shielding tensors ??</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Paramagnetic spin - orbit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Diamagnetic spin - orbit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>磁気遮蔽テンソル</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ジキシャヘイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の付属情報は算出可能らしい??</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イカノ </t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">フゾクジョウホウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">カノウラシイ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -922,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1365,7 +1385,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
@@ -1427,7 +1447,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1">
         <v>85003</v>
@@ -1441,7 +1461,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1">
         <v>29</v>
@@ -1461,7 +1481,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
         <v>29</v>
@@ -1541,7 +1561,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>1355945</v>
@@ -1564,7 +1584,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1">
         <v>1443215</v>
@@ -1590,11 +1610,11 @@
     <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -1616,6 +1636,9 @@
       </c>
     </row>
     <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
@@ -1623,7 +1646,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1">
         <v>85003</v>
@@ -1634,10 +1657,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1">
         <v>52494</v>
@@ -1657,10 +1680,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1">
         <v>46825</v>
@@ -1680,10 +1703,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39" s="1">
         <v>34847</v>
@@ -1704,11 +1727,11 @@
     <row r="40" spans="1:10">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -1737,7 +1760,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1">
         <v>85003</v>
@@ -1751,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1">
         <v>29</v>
@@ -1768,10 +1791,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1">
         <v>523980</v>
@@ -1791,7 +1814,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E44" s="1">
         <v>549223</v>
@@ -1811,7 +1837,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1">
         <v>457665</v>
@@ -1831,7 +1857,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -1839,7 +1865,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1">
         <v>532658</v>
@@ -1859,7 +1885,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="1">
         <v>436576</v>
@@ -1879,7 +1905,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -1887,7 +1913,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -1895,7 +1921,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E51" s="1">
         <v>488258</v>
@@ -1915,17 +1941,17 @@
     </row>
     <row r="52" spans="1:10">
       <c r="D52" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
@@ -1954,7 +1980,7 @@
         <v>42</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1">
         <v>85003</v>
@@ -1968,7 +1994,7 @@
         <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1">
         <v>29</v>
@@ -1985,10 +2011,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E56" s="1">
         <v>599131</v>
@@ -2009,11 +2035,11 @@
     <row r="57" spans="1:10">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
@@ -2053,10 +2079,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1">
         <v>54596</v>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43821DF0-C728-C040-8E64-1C359FE38964}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744F78E4-2490-5045-B25B-18E32BE50713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="preprocess" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
   <si>
     <t>テーブル名</t>
   </si>
@@ -282,22 +283,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>例: 1HC, 水素原子, 炭素原子, 1はどういう意味?</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">レイ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">スイソ </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ゲンシ </t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t xml:space="preserve">タンソゲンシ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>train data と種類, 比率ともに同じ</t>
     <rPh sb="12" eb="14">
       <t xml:space="preserve">シュルイ </t>
@@ -349,10 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Fermi Contact</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Spin-dipolar</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -554,6 +535,108 @@
     <rPh sb="10" eb="12">
       <t xml:space="preserve">カノウラシイ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例: nJAB, nは対象の原子間にある結合の個数, A,Bは結合する原子.</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">タイショウノ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ゲンシカン </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ケツゴウノ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">コスウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ケツゴウスルゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distance_x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distance_y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distance_z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>structuresデータより作成, 原子間距離</t>
+    <rPh sb="19" eb="24">
+      <t xml:space="preserve">ゲンシカンキョリ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x軸についての原子間距離</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ジクニツイテ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">ゲンシカンショルキ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">キョリ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>y軸についての原子間距離</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ジクニツイテ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">ゲンシカンショルキ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">キョリ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>z軸についての原子間距離</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ジクニツイテ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">ゲンシカンショルキ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">キョリ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>via_number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>typeより作成, 例におけるnを抽出</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">レイニオケル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fermi Contact, 4種の中で最も影響が大きい?</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -585,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,6 +714,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A8" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1010,7 +1105,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1024,7 +1119,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1088,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -1152,7 +1247,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1">
@@ -1163,7 +1258,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1218,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
@@ -1256,7 +1351,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1385,7 +1480,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
@@ -1418,7 +1513,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
@@ -1447,7 +1542,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
         <v>85003</v>
@@ -1458,10 +1553,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1">
         <v>29</v>
@@ -1478,10 +1573,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1">
         <v>29</v>
@@ -1512,10 +1607,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1">
         <v>2171072</v>
@@ -1535,10 +1630,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="1">
         <v>576942</v>
@@ -1558,10 +1653,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1">
         <v>1355945</v>
@@ -1581,10 +1676,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="1">
         <v>1443215</v>
@@ -1604,17 +1699,17 @@
     </row>
     <row r="34" spans="1:10">
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -1637,7 +1732,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -1646,7 +1741,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1">
         <v>85003</v>
@@ -1657,10 +1752,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1">
         <v>52494</v>
@@ -1680,10 +1775,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="1">
         <v>46825</v>
@@ -1703,10 +1798,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1">
         <v>34847</v>
@@ -1727,11 +1822,11 @@
     <row r="40" spans="1:10">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -1760,7 +1855,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1">
         <v>85003</v>
@@ -1774,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1">
         <v>29</v>
@@ -1791,10 +1886,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E43" s="1">
         <v>523980</v>
@@ -1814,10 +1909,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" s="1">
         <v>549223</v>
@@ -1837,7 +1932,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E45" s="1">
         <v>457665</v>
@@ -1857,7 +1952,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -1865,7 +1960,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1">
         <v>532658</v>
@@ -1885,7 +1980,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1">
         <v>436576</v>
@@ -1905,7 +2000,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -1913,7 +2008,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -1921,7 +2016,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1">
         <v>488258</v>
@@ -1941,17 +2036,17 @@
     </row>
     <row r="52" spans="1:10">
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
@@ -1980,7 +2075,7 @@
         <v>42</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" s="1">
         <v>85003</v>
@@ -1994,7 +2089,7 @@
         <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1">
         <v>29</v>
@@ -2011,10 +2106,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1">
         <v>599131</v>
@@ -2035,11 +2130,11 @@
     <row r="57" spans="1:10">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
@@ -2079,10 +2174,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E59" s="1">
         <v>54596</v>
@@ -2098,6 +2193,379 @@
       </c>
       <c r="I59" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5D558-E900-F64B-B120-84AE07CFAC9C}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4658147</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1">
+        <v>85003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1">
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1">
+      <c r="B10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1">
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1">
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1">
+      <c r="B13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2182935</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-36.219000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>204.88</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15.922000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2505542</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="1" customFormat="1">
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45772</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="1" customFormat="1">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="1" customFormat="1">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="1" customFormat="1">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="1" customFormat="1">
+      <c r="B21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744F78E4-2490-5045-B25B-18E32BE50713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBAFCF-8898-3048-9AF4-B6F5FECBED70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
   <si>
     <t>テーブル名</t>
   </si>
@@ -637,6 +637,43 @@
   </si>
   <si>
     <t>Fermi Contact, 4種の中で最も影響が大きい?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>electro_diff</t>
+  </si>
+  <si>
+    <t>bond_exist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の原子間に結合が存在するか</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイショウ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">アイダ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気陰性度の差 (妥当性不明)</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">デンキインセイド </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ダトウセイ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">フメイ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2203,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5D558-E900-F64B-B120-84AE07CFAC9C}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2399,173 +2436,208 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1">
+      <c r="B15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>2182935</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16" s="1">
         <v>-36.219000000000001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G16" s="1">
         <v>204.88</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H16" s="1">
         <v>15.922000000000001</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1">
-      <c r="B16" s="5" t="s">
+    <row r="18" spans="1:10" s="1" customFormat="1">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="1">
         <v>2505542</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="1" customFormat="1">
-      <c r="B17" s="5" t="s">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E19" s="1">
         <v>45772</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="1" customFormat="1">
-      <c r="B18" s="1" t="s">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <v>28</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G20" s="1">
         <v>28</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="1" customFormat="1">
-      <c r="B19" s="1" t="s">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1">
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="1">
         <v>29</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <v>28</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="1" customFormat="1">
-      <c r="B20" s="1" t="s">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" s="1" customFormat="1">
-      <c r="B21" s="4" t="s">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1">
+      <c r="B23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4" t="s">
+    <row r="24" spans="1:10">
+      <c r="B24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="4" t="s">
+    <row r="25" spans="1:10">
+      <c r="B25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:10">
+      <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="4" t="s">
+    <row r="27" spans="1:10">
+      <c r="B27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1">
+      <c r="B28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1">
+      <c r="B29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBAFCF-8898-3048-9AF4-B6F5FECBED70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBBF516-305F-934C-A538-F056357B2217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2242,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5D558-E900-F64B-B120-84AE07CFAC9C}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBBF516-305F-934C-A538-F056357B2217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B4527-DA49-6842-A44F-E202683D4E2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B4527-DA49-6842-A44F-E202683D4E2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74495EC-FC7C-D546-A18A-FE18550F049A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -664,14 +664,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>電気陰性度の差 (妥当性不明)</t>
-    <rPh sb="0" eb="5">
+    <t>結合する原子間での, 電気陰性度の差 (妥当性不明)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケツゴウスル </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ゲンシカンデノ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="11" eb="16">
       <t xml:space="preserve">デンキインセイド </t>
     </rPh>
-    <rPh sb="9" eb="12">
+    <rPh sb="20" eb="23">
       <t xml:space="preserve">ダトウセイ </t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="23" eb="25">
       <t xml:space="preserve">フメイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1074,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2242,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5D558-E900-F64B-B120-84AE07CFAC9C}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74495EC-FC7C-D546-A18A-FE18550F049A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F324286-1027-2943-B0DE-58B1A97E09E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
   <si>
     <t>テーブル名</t>
   </si>
@@ -664,10 +664,41 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>結合する原子間での, 電気陰性度の差 (妥当性不明)</t>
+    <t>train.csv (test.csv)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type_number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>typeをint型に</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ガタニ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">electro_num_diff </t>
+  </si>
+  <si>
+    <t>結合する原子間での, 最外殻電子数の差</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ケツゴウスル </t>
     </rPh>
+    <rPh sb="11" eb="14">
+      <t xml:space="preserve">サイガイカク </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">タイガイデンシスウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合する原子間での, 電気陰性度の差</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケツゴウスル </t>
+    </rPh>
     <rPh sb="4" eb="6">
       <t xml:space="preserve">ゲンシカンデノ </t>
     </rPh>
@@ -676,12 +707,6 @@
     </rPh>
     <rPh sb="11" eb="16">
       <t xml:space="preserve">デンキインセイド </t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t xml:space="preserve">ダトウセイ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">フメイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2249,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5D558-E900-F64B-B120-84AE07CFAC9C}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2291,7 +2316,7 @@
     <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -2414,240 +2439,151 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1">
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1">
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1">
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1">
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="B14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="B15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1">
+      <c r="B16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1">
+      <c r="B17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1">
-      <c r="B16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="1">
         <v>2182935</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F18" s="1">
         <v>-36.219000000000001</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="1">
         <v>204.88</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H18" s="1">
         <v>15.922000000000001</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1">
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2505542</v>
-      </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1">
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="1">
-        <v>45772</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1">
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>28</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1">
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>28</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1">
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1">
-      <c r="B23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1"/>
+    <row r="23" spans="1:10" s="1" customFormat="1"/>
+    <row r="24" spans="1:10" s="1" customFormat="1"/>
+    <row r="25" spans="1:10" s="1" customFormat="1">
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B26" s="5"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
-      <c r="B28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1">
-      <c r="B29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F324286-1027-2943-B0DE-58B1A97E09E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A24CE-32E6-5944-9A7C-8F5D92BC5C8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
   <si>
     <t>テーブル名</t>
   </si>
@@ -708,6 +708,33 @@
     <rPh sb="11" eb="16">
       <t xml:space="preserve">デンキインセイド </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例: nJAB, nは対象の原子間にある結合の数 (いくつ経由してたどり着くか), A,Bは結合する原子.</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">タイショウノ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ゲンシカン </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ケツゴウスルゲンシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特徴量フラグ</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>✅</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -773,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +818,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1254,7 +1290,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -2274,26 +2310,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5D558-E900-F64B-B120-84AE07CFAC9C}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2303,280 +2341,312 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1">
+    <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>4658147</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1">
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>85003</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>28</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>29</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>28</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1">
       <c r="B9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1">
+    <row r="10" spans="1:11" s="1" customFormat="1">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1">
+    <row r="11" spans="1:11" s="1" customFormat="1">
       <c r="B11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1">
+    <row r="12" spans="1:11" s="1" customFormat="1">
       <c r="B12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1">
+    <row r="13" spans="1:11" s="1" customFormat="1">
       <c r="B13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1">
+    <row r="14" spans="1:11" s="1" customFormat="1">
       <c r="B14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1">
+    <row r="15" spans="1:11" s="1" customFormat="1">
       <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1">
+    <row r="16" spans="1:11" s="1" customFormat="1">
       <c r="B16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1">
+    <row r="17" spans="1:11" s="1" customFormat="1">
       <c r="B17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1">
+    <row r="18" spans="1:11" s="1" customFormat="1">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>2182935</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>-36.219000000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>204.88</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>15.922000000000001</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1">
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1">
       <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1"/>
-    <row r="23" spans="1:10" s="1" customFormat="1"/>
-    <row r="24" spans="1:10" s="1" customFormat="1"/>
-    <row r="25" spans="1:10" s="1" customFormat="1">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1">
       <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="B26" s="5"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1">
       <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1">
       <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2">

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A24CE-32E6-5944-9A7C-8F5D92BC5C8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA9D00-CBE8-184D-8116-1621A2E04493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -647,19 +647,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>対象の原子間に結合が存在するか</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">タイショウ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">アイダ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ケツゴウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>boolean</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -735,6 +722,16 @@
   </si>
   <si>
     <t>✅</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1JABは全て結合ある</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -742,7 +739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -764,6 +761,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -800,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1290,7 +1298,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -2312,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5D558-E900-F64B-B120-84AE07CFAC9C}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2342,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2357,7 +2365,7 @@
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
@@ -2480,7 +2488,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>102</v>
@@ -2488,11 +2496,11 @@
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
@@ -2532,33 +2540,33 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1">
-      <c r="B16" s="4" t="s">
-        <v>111</v>
+      <c r="B16" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA9D00-CBE8-184D-8116-1621A2E04493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CACDD31-EA7B-5A47-829F-E673C960F15F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -514,10 +514,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Diamagnetic spin - orbit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>磁気遮蔽テンソル</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ジキシャヘイ </t>
@@ -731,6 +727,25 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Diamagnetic spin - orbit, 反磁性異方性 (電子密度を増大化させる?)</t>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ハン </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ジセイ </t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t xml:space="preserve">イホウセイ </t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t xml:space="preserve">デンシミツド </t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t xml:space="preserve">ゾウダイカ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1152,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1298,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -1725,7 +1740,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="1">
         <v>2171072</v>
@@ -1794,7 +1809,7 @@
         <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1">
         <v>1443215</v>
@@ -1847,7 +1862,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -2027,7 +2042,7 @@
         <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="1">
         <v>549223</v>
@@ -2350,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2365,7 +2380,7 @@
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
@@ -2474,7 +2489,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
@@ -2485,88 +2500,88 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
       <c r="B9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1">
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1">
       <c r="B14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1">
       <c r="B15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1">
       <c r="B16" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
       <c r="B17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">

--- a/input/data_definition.xlsx
+++ b/input/data_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Molecular_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CACDD31-EA7B-5A47-829F-E673C960F15F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF55B0-D64D-F94B-8BB1-B27AA0649D06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
